--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -467,7 +467,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0735607761539283</v>
+        <v>0.0733400994865091</v>
       </c>
       <c r="C2" t="n">
         <v>0.0842239019670536</v>
@@ -476,13 +476,13 @@
         <v>0.0547927176769847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0760514780178199</v>
+        <v>0.0760327141955111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.067026792581478</v>
+        <v>0.0669114775197711</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0920967205410096</v>
+        <v>0.0920632626671683</v>
       </c>
       <c r="H2" t="n">
         <v>0.0878515960744792</v>
@@ -491,16 +491,16 @@
         <v>0.0779795946806646</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0692716680006725</v>
+        <v>0.0692754534551009</v>
       </c>
       <c r="K2" t="n">
         <v>0.0659747748115051</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0750557539922723</v>
+        <v>0.0750505593654859</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0714958910539255</v>
+        <v>0.0714571662329343</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0670630635533663</v>
+        <v>0.0693614035275766</v>
       </c>
       <c r="C3" t="n">
         <v>0.074876587000355</v>
@@ -517,31 +517,31 @@
         <v>0.0690766549915236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0677703903044635</v>
+        <v>0.0674801091771748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0743365047306078</v>
+        <v>0.0744035853827056</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0605171589607126</v>
+        <v>0.0605443814102128</v>
       </c>
       <c r="H3" t="n">
         <v>0.0637528331799311</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0715738399753902</v>
+        <v>0.0715738399753903</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0803139201979408</v>
+        <v>0.0795263704021108</v>
       </c>
       <c r="K3" t="n">
         <v>0.0706729070391161</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0717414274004431</v>
+        <v>0.0715487050700091</v>
       </c>
       <c r="M3" t="n">
-        <v>0.069740450075581</v>
+        <v>0.0704097593424045</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0687038440208541</v>
+        <v>0.0659269123988427</v>
       </c>
       <c r="C4" t="n">
         <v>0.076695837672889</v>
@@ -558,13 +558,13 @@
         <v>0.0630588969706027</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0597022927822558</v>
+        <v>0.0596469382945773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0575858862117585</v>
+        <v>0.0570457207122758</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0732628840979998</v>
+        <v>0.0731855218182251</v>
       </c>
       <c r="H4" t="n">
         <v>0.0591017422161285</v>
@@ -573,16 +573,16 @@
         <v>0.0703038586652821</v>
       </c>
       <c r="J4" t="n">
-        <v>0.064842781074081</v>
+        <v>0.0631388081055215</v>
       </c>
       <c r="K4" t="n">
         <v>0.0569923637200512</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0636398794760722</v>
+        <v>0.0631726910124646</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0657595624477534</v>
+        <v>0.0646513709190078</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0614504324050267</v>
+        <v>0.0602903378994578</v>
       </c>
       <c r="C5" t="n">
         <v>0.0742155017140613</v>
@@ -599,13 +599,13 @@
         <v>0.0544892802998084</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0646952275285313</v>
+        <v>0.0645522072249481</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0607744270685344</v>
+        <v>0.0606237455083262</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0564582316822075</v>
+        <v>0.056518169688775</v>
       </c>
       <c r="H5" t="n">
         <v>0.0662867730916867</v>
@@ -614,16 +614,16 @@
         <v>0.067791724589107</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0728670688167809</v>
+        <v>0.0727739255993687</v>
       </c>
       <c r="K5" t="n">
         <v>0.0670202568341043</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0657685516691704</v>
+        <v>0.0657223814518029</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0628521353707489</v>
+        <v>0.0623336005526221</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0812270461784223</v>
+        <v>0.0839890742329249</v>
       </c>
       <c r="C6" t="n">
         <v>0.0817807188426246</v>
@@ -640,13 +640,13 @@
         <v>0.0855122052834795</v>
       </c>
       <c r="E6" t="n">
-        <v>0.102146352796885</v>
+        <v>0.102156120603058</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0799746449695197</v>
+        <v>0.0802267515290865</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0956325386986876</v>
+        <v>0.095649621684765</v>
       </c>
       <c r="H6" t="n">
         <v>0.0793773624418255</v>
@@ -655,16 +655,16 @@
         <v>0.0867582972520495</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0908030606555676</v>
+        <v>0.0907968579080434</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0902235475906645</v>
+        <v>0.0902235475906644</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0879218424021046</v>
+        <v>0.0879865557898738</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0850565945362428</v>
+        <v>0.0858697392438456</v>
       </c>
     </row>
     <row r="7">
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.102178762244323</v>
+        <v>0.103271470952975</v>
       </c>
       <c r="C7" t="n">
         <v>0.0919538819577016</v>
@@ -681,13 +681,13 @@
         <v>0.0939543688464504</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11426494725522</v>
+        <v>0.114235222143197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.119119723343935</v>
+        <v>0.119232192503688</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11790161217953</v>
+        <v>0.117868776742459</v>
       </c>
       <c r="H7" t="n">
         <v>0.118281120632116</v>
@@ -696,16 +696,16 @@
         <v>0.119551849865528</v>
       </c>
       <c r="J7" t="n">
-        <v>0.094081678267954</v>
+        <v>0.0961835906266972</v>
       </c>
       <c r="K7" t="n">
         <v>0.109843038491774</v>
       </c>
       <c r="L7" t="n">
-        <v>0.111626691627109</v>
+        <v>0.111997728964417</v>
       </c>
       <c r="M7" t="n">
-        <v>0.10481575661603</v>
+        <v>0.105308674952193</v>
       </c>
     </row>
     <row r="8">
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0735607827912537</v>
+        <v>0.0761044942129727</v>
       </c>
       <c r="C8" t="n">
         <v>0.0872285538219879</v>
@@ -722,13 +722,13 @@
         <v>0.0637158431576248</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0648821706406825</v>
+        <v>0.06475429918722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0758856067054513</v>
+        <v>0.0757109922092731</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0533042590684304</v>
+        <v>0.0532516427270356</v>
       </c>
       <c r="H8" t="n">
         <v>0.0894547672482589</v>
@@ -737,16 +737,16 @@
         <v>0.0403054381574507</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0702228503132418</v>
+        <v>0.0692679562623952</v>
       </c>
       <c r="K8" t="n">
         <v>0.0782880829324397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0663163740793783</v>
+        <v>0.0660970109196449</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0690953175833853</v>
+        <v>0.0701969387250203</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0843765702146124</v>
+        <v>0.0815915854513432</v>
       </c>
       <c r="C9" t="n">
         <v>0.0691423429301456</v>
@@ -763,31 +763,31 @@
         <v>0.078098607288358</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0596634390538234</v>
+        <v>0.0605524229927547</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0637666511777004</v>
+        <v>0.0641037167605953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0587360789299715</v>
+        <v>0.0588238357267533</v>
       </c>
       <c r="H9" t="n">
         <v>0.0648319314069676</v>
       </c>
       <c r="I9" t="n">
-        <v>0.074062911791553</v>
+        <v>0.0740629117915529</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0698421682607845</v>
+        <v>0.0705868590697061</v>
       </c>
       <c r="K9" t="n">
         <v>0.0850260499384609</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0697707437686163</v>
+        <v>0.0700638382433871</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0760853158064264</v>
+        <v>0.0755678355757112</v>
       </c>
     </row>
     <row r="10">
@@ -795,7 +795,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.071555769066516</v>
+        <v>0.0719492851367215</v>
       </c>
       <c r="C10" t="n">
         <v>0.0680449100979663</v>
@@ -804,13 +804,13 @@
         <v>0.0483985765313247</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0555323681638478</v>
+        <v>0.0555749320574927</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0777745067372126</v>
+        <v>0.0777914493895107</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0734811107537416</v>
+        <v>0.0734590697438401</v>
       </c>
       <c r="H10" t="n">
         <v>0.0595396806983973</v>
@@ -819,16 +819,16 @@
         <v>0.065791649992748</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0675578943077598</v>
+        <v>0.0676708849615415</v>
       </c>
       <c r="K10" t="n">
         <v>0.0872253410585609</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0721917924173698</v>
+        <v>0.0722224756040576</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0680380393947584</v>
+        <v>0.0683496843839251</v>
       </c>
     </row>
     <row r="11">
@@ -836,7 +836,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.074830980559707</v>
+        <v>0.0756308413752406</v>
       </c>
       <c r="C11" t="n">
         <v>0.0707618543216589</v>
@@ -845,13 +845,13 @@
         <v>0.105670387282065</v>
       </c>
       <c r="E11" t="n">
-        <v>0.104620098435059</v>
+        <v>0.104492287858959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0754397848023223</v>
+        <v>0.0755670746587026</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0905533223164117</v>
+        <v>0.0906444037203277</v>
       </c>
       <c r="H11" t="n">
         <v>0.085869920251881</v>
@@ -860,16 +860,16 @@
         <v>0.086313544823945</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0969012160898567</v>
+        <v>0.0965828083968854</v>
       </c>
       <c r="K11" t="n">
         <v>0.084065324806883</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0870816196647482</v>
+        <v>0.0870391799852764</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0853744399096446</v>
+        <v>0.0851570504311575</v>
       </c>
     </row>
     <row r="12">
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0759473200504063</v>
+        <v>0.0755028708932418</v>
       </c>
       <c r="C12" t="n">
         <v>0.0734677606126194</v>
@@ -886,13 +886,13 @@
         <v>0.0857806334135567</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0654500107697156</v>
+        <v>0.0653798009478047</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0793824102175058</v>
+        <v>0.0792668445171574</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0759662652789659</v>
+        <v>0.0760611470535092</v>
       </c>
       <c r="H12" t="n">
         <v>0.0708916398062402</v>
@@ -901,16 +901,16 @@
         <v>0.0830354842543605</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0605508608706694</v>
+        <v>0.0611259604327444</v>
       </c>
       <c r="K12" t="n">
         <v>0.0688303720850403</v>
       </c>
       <c r="L12" t="n">
-        <v>0.072641665532329</v>
+        <v>0.0727506456146238</v>
       </c>
       <c r="M12" t="n">
-        <v>0.075861348429557</v>
+        <v>0.075761029627612</v>
       </c>
     </row>
     <row r="13">
@@ -918,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0861487170327572</v>
+        <v>0.0841566763575223</v>
       </c>
       <c r="C13" t="n">
         <v>0.0817466072512181</v>
@@ -927,13 +927,13 @@
         <v>0.0883097441459152</v>
       </c>
       <c r="E13" t="n">
-        <v>0.086044632624227</v>
+        <v>0.0859630818144552</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101978930212303</v>
+        <v>0.102170356708558</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0836043858952795</v>
+        <v>0.0836259636102523</v>
       </c>
       <c r="H13" t="n">
         <v>0.0740624743685745</v>
@@ -942,16 +942,16 @@
         <v>0.0784573542119029</v>
       </c>
       <c r="J13" t="n">
-        <v>0.096010785843972</v>
+        <v>0.0963512083922882</v>
       </c>
       <c r="K13" t="n">
         <v>0.0653654272516925</v>
       </c>
       <c r="L13" t="n">
-        <v>0.085002626011858</v>
+        <v>0.0850935222746219</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0857957276011436</v>
+        <v>0.0850854746207427</v>
       </c>
     </row>
     <row r="14">
@@ -959,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0793959357288269</v>
+        <v>0.0788849480746715</v>
       </c>
       <c r="C14" t="n">
         <v>0.0658615418097188</v>
@@ -968,31 +968,31 @@
         <v>0.109142084112306</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0791765916274684</v>
+        <v>0.0791798635028483</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0669541312416711</v>
+        <v>0.0669460926003496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0684854315970525</v>
+        <v>0.0683042034066767</v>
       </c>
       <c r="H14" t="n">
         <v>0.0806981585835131</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0780744517400188</v>
+        <v>0.0780744517400189</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0667340473007192</v>
+        <v>0.0667193163875966</v>
       </c>
       <c r="K14" t="n">
         <v>0.0704725134397072</v>
       </c>
       <c r="L14" t="n">
-        <v>0.071241031958529</v>
+        <v>0.0712547057043355</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0800294211748036</v>
+        <v>0.0798516753928238</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
+    <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0733400994865091</v>
+        <v>0.0714958910539255</v>
       </c>
       <c r="C2" t="n">
+        <v>0.0750557539922723</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0659747748115051</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0692716680006725</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0779795946806646</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0878515960744792</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0920967205410096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.067026792581478</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0760514780178199</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0547927176769847</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.0842239019670536</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0547927176769847</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0760327141955111</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0669114775197711</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0920632626671683</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0878515960744792</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0779795946806646</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0692754534551009</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0659747748115051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0750505593654859</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.0714571662329343</v>
+        <v>0.0735607761539283</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0693614035275766</v>
+        <v>0.069740450075581</v>
       </c>
       <c r="C3" t="n">
+        <v>0.0717414274004431</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0706729070391161</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0803139201979408</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0715738399753902</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0637528331799311</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0605171589607126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0743365047306078</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0677703903044635</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0690766549915236</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.074876587000355</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0690766549915236</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0674801091771748</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0744035853827056</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0605443814102128</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0637528331799311</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0715738399753903</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0795263704021108</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0706729070391161</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0715487050700091</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.0704097593424045</v>
+        <v>0.0670630635533663</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0659269123988427</v>
+        <v>0.0657595624477534</v>
       </c>
       <c r="C4" t="n">
+        <v>0.0636398794760722</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0569923637200512</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.064842781074081</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0703038586652821</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0591017422161285</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0732628840979998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0575858862117585</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0597022927822558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0630588969706027</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.076695837672889</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0630588969706027</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0596469382945773</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0570457207122758</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0731855218182251</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0591017422161285</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0703038586652821</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0631388081055215</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0569923637200512</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0631726910124646</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.0646513709190078</v>
+        <v>0.0687038440208541</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0602903378994578</v>
+        <v>0.0628521353707489</v>
       </c>
       <c r="C5" t="n">
+        <v>0.0657685516691704</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0670202568341043</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0728670688167809</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.067791724589107</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0662867730916867</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0564582316822075</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0607744270685344</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0646952275285313</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0544892802998084</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.0742155017140613</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0544892802998084</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0645522072249481</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0606237455083262</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.056518169688775</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0662867730916867</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.067791724589107</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0727739255993687</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0670202568341043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0657223814518029</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.0623336005526221</v>
+        <v>0.0614504324050267</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0839890742329249</v>
+        <v>0.0850565945362428</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0879218424021046</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0902235475906645</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0908030606555676</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0867582972520495</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0793773624418255</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0956325386986876</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0799746449695197</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.102146352796885</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0855122052834795</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.0817807188426246</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0855122052834795</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.102156120603058</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0802267515290865</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.095649621684765</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0793773624418255</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0867582972520495</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0907968579080434</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0902235475906644</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0879865557898738</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.0858697392438456</v>
+        <v>0.0812270461784223</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.103271470952975</v>
+        <v>0.10481575661603</v>
       </c>
       <c r="C7" t="n">
+        <v>0.111626691627109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.109843038491774</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.094081678267954</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.119551849865528</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.118281120632116</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.11790161217953</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.119119723343935</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.11426494725522</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0939543688464504</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.0919538819577016</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.0939543688464504</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.114235222143197</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.119232192503688</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.117868776742459</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.118281120632116</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.119551849865528</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0961835906266972</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.109843038491774</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.111997728964417</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.105308674952193</v>
+        <v>0.102178762244323</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0761044942129727</v>
+        <v>0.0690953175833853</v>
       </c>
       <c r="C8" t="n">
+        <v>0.0663163740793783</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0782880829324397</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0702228503132418</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0403054381574507</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0894547672482589</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0533042590684304</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0758856067054513</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0648821706406825</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0637158431576248</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.0872285538219879</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0637158431576248</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06475429918722</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0757109922092731</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0532516427270356</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0894547672482589</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0403054381574507</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0692679562623952</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0782880829324397</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0660970109196449</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.0701969387250203</v>
+        <v>0.0735607827912537</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0815915854513432</v>
+        <v>0.0760853158064264</v>
       </c>
       <c r="C9" t="n">
+        <v>0.0697707437686163</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0850260499384609</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0698421682607845</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.074062911791553</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0648319314069676</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0587360789299715</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0637666511777004</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0596634390538234</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.078098607288358</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.0691423429301456</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.078098607288358</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0605524229927547</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0641037167605953</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0588238357267533</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0648319314069676</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0740629117915529</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0705868590697061</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0850260499384609</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0700638382433871</v>
-      </c>
       <c r="M9" t="n">
-        <v>0.0755678355757112</v>
+        <v>0.0843765702146124</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0719492851367215</v>
+        <v>0.0680380393947584</v>
       </c>
       <c r="C10" t="n">
+        <v>0.0721917924173698</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0872253410585609</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0675578943077598</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.065791649992748</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0595396806983973</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0734811107537416</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0777745067372126</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0555323681638478</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0483985765313247</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.0680449100979663</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0483985765313247</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0555749320574927</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0777914493895107</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0734590697438401</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0595396806983973</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.065791649992748</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0676708849615415</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0872253410585609</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0722224756040576</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.0683496843839251</v>
+        <v>0.071555769066516</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0756308413752406</v>
+        <v>0.0853744399096446</v>
       </c>
       <c r="C11" t="n">
+        <v>0.0870816196647482</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.084065324806883</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0969012160898567</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.086313544823945</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.085869920251881</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0905533223164117</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0754397848023223</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.104620098435059</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.105670387282065</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.0707618543216589</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.105670387282065</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.104492287858959</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0755670746587026</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0906444037203277</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.085869920251881</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.086313544823945</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0965828083968854</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.084065324806883</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0870391799852764</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.0851570504311575</v>
+        <v>0.074830980559707</v>
       </c>
     </row>
     <row r="12">
@@ -877,40 +877,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0755028708932418</v>
+        <v>0.075861348429557</v>
       </c>
       <c r="C12" t="n">
+        <v>0.072641665532329</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0688303720850403</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0605508608706694</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0830354842543605</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0708916398062402</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0759662652789659</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0793824102175058</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0654500107697156</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0857806334135567</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.0734677606126194</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0857806334135567</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0653798009478047</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0792668445171574</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0760611470535092</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0708916398062402</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0830354842543605</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0611259604327444</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0688303720850403</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0727506456146238</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.075761029627612</v>
+        <v>0.0759473200504063</v>
       </c>
     </row>
     <row r="13">
@@ -918,40 +918,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0841566763575223</v>
+        <v>0.0857957276011436</v>
       </c>
       <c r="C13" t="n">
+        <v>0.085002626011858</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0653654272516925</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.096010785843972</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0784573542119029</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0740624743685745</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0836043858952795</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.101978930212303</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.086044632624227</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0883097441459152</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.0817466072512181</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0883097441459152</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0859630818144552</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.102170356708558</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0836259636102523</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0740624743685745</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0784573542119029</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0963512083922882</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0653654272516925</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0850935222746219</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.0850854746207427</v>
+        <v>0.0861487170327572</v>
       </c>
     </row>
     <row r="14">
@@ -959,40 +959,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0788849480746715</v>
+        <v>0.0800294211748036</v>
       </c>
       <c r="C14" t="n">
+        <v>0.071241031958529</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0704725134397072</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0667340473007192</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0780744517400188</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0806981585835131</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0684854315970525</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0669541312416711</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0791765916274684</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.109142084112306</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.0658615418097188</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.109142084112306</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0791798635028483</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0669460926003496</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0683042034066767</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0806981585835131</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0780744517400189</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0667193163875966</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.0704725134397072</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0712547057043355</v>
-      </c>
       <c r="M14" t="n">
-        <v>0.0798516753928238</v>
+        <v>0.0793959357288269</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0714958910539255</v>
+        <v>0.0728783962719581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0750557539922723</v>
+        <v>0.0847461462848402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0659747748115051</v>
+        <v>0.0553464405882959</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0692716680006725</v>
+        <v>0.080465049365499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0779795946806646</v>
+        <v>0.0691564605995482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0878515960744792</v>
+        <v>0.0910615313607999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0920967205410096</v>
+        <v>0.0844286022016669</v>
       </c>
       <c r="I2" t="n">
-        <v>0.067026792581478</v>
+        <v>0.0778600772704493</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0760514780178199</v>
+        <v>0.0703824579835724</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0547927176769847</v>
+        <v>0.0662873244779795</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0842239019670536</v>
+        <v>0.0752039598138006</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0735607761539283</v>
+        <v>0.0714857028953939</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.069740450075581</v>
+        <v>0.0685826637755239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0717414274004431</v>
+        <v>0.0750504658851323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0706729070391161</v>
+        <v>0.0692871937830102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0803139201979408</v>
+        <v>0.0754842462519319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0715738399753902</v>
+        <v>0.0765189569834247</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0637528331799311</v>
+        <v>0.0610103134010618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0605171589607126</v>
+        <v>0.06543316108226</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0743365047306078</v>
+        <v>0.0717089774963967</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0677703903044635</v>
+        <v>0.0762607310238638</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0690766549915236</v>
+        <v>0.0716451746497696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.074876587000355</v>
+        <v>0.0718945015844923</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0670630635533663</v>
+        <v>0.0703142122360102</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0657595624477534</v>
+        <v>0.0651447169297712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0636398794760722</v>
+        <v>0.0768924942186655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0569923637200512</v>
+        <v>0.0626100546941549</v>
       </c>
       <c r="E4" t="n">
-        <v>0.064842781074081</v>
+        <v>0.0611014838387761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0703038586652821</v>
+        <v>0.0582374431235512</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0591017422161285</v>
+        <v>0.0733858747541631</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0732628840979998</v>
+        <v>0.0576550216640607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0575858862117585</v>
+        <v>0.0705856978221754</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0597022927822558</v>
+        <v>0.064288165512312</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0630588969706027</v>
+        <v>0.0557914714305066</v>
       </c>
       <c r="L4" t="n">
-        <v>0.076695837672889</v>
+        <v>0.0632360925971079</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0687038440208541</v>
+        <v>0.064337106315902</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0628521353707489</v>
+        <v>0.0600053362529808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0657685516691704</v>
+        <v>0.0739905640920407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0670202568341043</v>
+        <v>0.054677434527178</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0728670688167809</v>
+        <v>0.06746004668084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.067791724589107</v>
+        <v>0.0630927695601889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0662867730916867</v>
+        <v>0.05748504236833</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0564582316822075</v>
+        <v>0.0658161930957825</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0607744270685344</v>
+        <v>0.0678183527875056</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0646952275285313</v>
+        <v>0.0724675487828082</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0544892802998084</v>
+        <v>0.0662698726321891</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0742155017140613</v>
+        <v>0.0662027613263969</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0614504324050267</v>
+        <v>0.062482265318723</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0850565945362428</v>
+        <v>0.0848042307086248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0879218424021046</v>
+        <v>0.0818072953176544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0902235475906645</v>
+        <v>0.0869768103506962</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0908030606555676</v>
+        <v>0.0954133206804431</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0867582972520495</v>
+        <v>0.079866207852374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0793773624418255</v>
+        <v>0.095665580015614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0956325386986876</v>
+        <v>0.0796607123184649</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0799746449695197</v>
+        <v>0.0863386331676842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.102146352796885</v>
+        <v>0.0891845077702335</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0855122052834795</v>
+        <v>0.0914169552923395</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0817807188426246</v>
+        <v>0.0874729810221898</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0812270461784223</v>
+        <v>0.0861333775283969</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.10481575661603</v>
+        <v>0.10337923413957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111626691627109</v>
+        <v>0.0916443271242249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.109843038491774</v>
+        <v>0.0936954798268929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.094081678267954</v>
+        <v>0.102197581876908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.119551849865528</v>
+        <v>0.114837182606138</v>
       </c>
       <c r="G7" t="n">
-        <v>0.118281120632116</v>
+        <v>0.117387376118006</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11790161217953</v>
+        <v>0.118276073241192</v>
       </c>
       <c r="I7" t="n">
-        <v>0.119119723343935</v>
+        <v>0.119631848043162</v>
       </c>
       <c r="J7" t="n">
-        <v>0.11426494725522</v>
+        <v>0.0982496980977976</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0939543688464504</v>
+        <v>0.107953633327851</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0919538819577016</v>
+        <v>0.111042775787661</v>
       </c>
       <c r="M7" t="n">
-        <v>0.102178762244323</v>
+        <v>0.104889011260406</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0690953175833853</v>
+        <v>0.0757812549995481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0663163740793783</v>
+        <v>0.0870809716630718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0782880829324397</v>
+        <v>0.0644460396612164</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0702228503132418</v>
+        <v>0.0610806512299685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0403054381574507</v>
+        <v>0.0757060521629949</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0894547672482589</v>
+        <v>0.0548590131070147</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0533042590684304</v>
+        <v>0.086249403831897</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0758856067054513</v>
+        <v>0.0403023731537819</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0648821706406825</v>
+        <v>0.0686917892600225</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0637158431576248</v>
+        <v>0.0774218472344093</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0872285538219879</v>
+        <v>0.0659600488077322</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0735607827912537</v>
+        <v>0.070089817830802</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0760853158064264</v>
+        <v>0.0821194425373583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0697707437686163</v>
+        <v>0.069087010255869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0850260499384609</v>
+        <v>0.0788304007373763</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0698421682607845</v>
+        <v>0.0628958989764233</v>
       </c>
       <c r="F9" t="n">
-        <v>0.074062911791553</v>
+        <v>0.0652155333995673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0648319314069676</v>
+        <v>0.0579637103820541</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0587360789299715</v>
+        <v>0.0669197721814988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0637666511777004</v>
+        <v>0.0740101483681619</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0596634390538234</v>
+        <v>0.0658955151897949</v>
       </c>
       <c r="K9" t="n">
-        <v>0.078098607288358</v>
+        <v>0.0832012120523381</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0691423429301456</v>
+        <v>0.0689617996370833</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0843765702146124</v>
+        <v>0.0754002069153849</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0680380393947584</v>
+        <v>0.0717038366282586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0721917924173698</v>
+        <v>0.0677562723974547</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0872253410585609</v>
+        <v>0.0485056382946508</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0675578943077598</v>
+        <v>0.05547657386271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065791649992748</v>
+        <v>0.0794757833797389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0595396806983973</v>
+        <v>0.073946460824641</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0734811107537416</v>
+        <v>0.0565871902606352</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0777745067372126</v>
+        <v>0.0657654705817301</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0555323681638478</v>
+        <v>0.0693549458931795</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0483985765313247</v>
+        <v>0.087585828959821</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0680449100979663</v>
+        <v>0.0726643404576136</v>
       </c>
       <c r="M10" t="n">
-        <v>0.071555769066516</v>
+        <v>0.0684858742960098</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0853744399096446</v>
+        <v>0.0750721412048194</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0870816196647482</v>
+        <v>0.0709816758329438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.084065324806883</v>
+        <v>0.103422629959697</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0969012160898567</v>
+        <v>0.103229430303872</v>
       </c>
       <c r="F11" t="n">
-        <v>0.086313544823945</v>
+        <v>0.0756545345272174</v>
       </c>
       <c r="G11" t="n">
-        <v>0.085869920251881</v>
+        <v>0.0906126825670594</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0905533223164117</v>
+        <v>0.0844838250554281</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0754397848023223</v>
+        <v>0.0863194602307683</v>
       </c>
       <c r="J11" t="n">
-        <v>0.104620098435059</v>
+        <v>0.10079166274499</v>
       </c>
       <c r="K11" t="n">
-        <v>0.105670387282065</v>
+        <v>0.0849834455579764</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0707618543216589</v>
+        <v>0.0879644277973406</v>
       </c>
       <c r="M11" t="n">
-        <v>0.074830980559707</v>
+        <v>0.0849924532955561</v>
       </c>
     </row>
     <row r="12">
@@ -877,40 +877,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.075861348429557</v>
+        <v>0.0766221860746766</v>
       </c>
       <c r="C12" t="n">
-        <v>0.072641665532329</v>
+        <v>0.0731588452547005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0688303720850403</v>
+        <v>0.0858512667802094</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0605508608706694</v>
+        <v>0.0664240215578783</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0830354842543605</v>
+        <v>0.0780931332430166</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0708916398062402</v>
+        <v>0.0775225137809606</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0759662652789659</v>
+        <v>0.0743766990705591</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0793824102175058</v>
+        <v>0.0830420690518943</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0654500107697156</v>
+        <v>0.0662971122648246</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0857806334135567</v>
+        <v>0.0706362559659104</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0734677606126194</v>
+        <v>0.0746070116318085</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0759473200504063</v>
+        <v>0.0769985448093659</v>
       </c>
     </row>
     <row r="13">
@@ -918,40 +918,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0857957276011436</v>
+        <v>0.0854150028779911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.085002626011858</v>
+        <v>0.0815252971271281</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0653654272516925</v>
+        <v>0.0882004044243773</v>
       </c>
       <c r="E13" t="n">
-        <v>0.096010785843972</v>
+        <v>0.0872667526523349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0784573542119029</v>
+        <v>0.098495182865804</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0740624743685745</v>
+        <v>0.0827865872047564</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0836043858952795</v>
+        <v>0.0725904177149801</v>
       </c>
       <c r="I13" t="n">
-        <v>0.101978930212303</v>
+        <v>0.0784491245325484</v>
       </c>
       <c r="J13" t="n">
-        <v>0.086044632624227</v>
+        <v>0.0912410141275855</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0883097441459152</v>
+        <v>0.0645442270797302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0817466072512181</v>
+        <v>0.0830438861838484</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0861487170327572</v>
+        <v>0.0846768296972528</v>
       </c>
     </row>
     <row r="14">
@@ -959,40 +959,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0800294211748036</v>
+        <v>0.0784915575989195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.071241031958529</v>
+        <v>0.0662786345462739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0704725134397072</v>
+        <v>0.108150206372245</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0667340473007192</v>
+        <v>0.0815049427224148</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0780744517400188</v>
+        <v>0.065650759696436</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0806981585835131</v>
+        <v>0.0663133141155385</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0684854315970525</v>
+        <v>0.0875229282815744</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0669541312416711</v>
+        <v>0.0781677674937424</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0791765916274684</v>
+        <v>0.0668948513490159</v>
       </c>
       <c r="K14" t="n">
-        <v>0.109142084112306</v>
+        <v>0.0722627513391788</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0658615418097188</v>
+        <v>0.0717454133529251</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0793959357288269</v>
+        <v>0.0797145976007967</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -579,7 +579,7 @@
         <v>0.0557914714305066</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0632360925971079</v>
+        <v>0.063236092597108</v>
       </c>
       <c r="M4" t="n">
         <v>0.064337106315902</v>
@@ -617,7 +617,7 @@
         <v>0.0724675487828082</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0662698726321891</v>
+        <v>0.0662698726321892</v>
       </c>
       <c r="L5" t="n">
         <v>0.0662027613263969</v>
@@ -649,7 +649,7 @@
         <v>0.095665580015614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0796607123184649</v>
+        <v>0.0796607123184648</v>
       </c>
       <c r="I6" t="n">
         <v>0.0863386331676842</v>
@@ -699,7 +699,7 @@
         <v>0.0982496980977976</v>
       </c>
       <c r="K7" t="n">
-        <v>0.107953633327851</v>
+        <v>0.107953633327852</v>
       </c>
       <c r="L7" t="n">
         <v>0.111042775787661</v>
@@ -737,7 +737,7 @@
         <v>0.0403023731537819</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0686917892600225</v>
+        <v>0.0686917892600224</v>
       </c>
       <c r="K8" t="n">
         <v>0.0774218472344093</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0821194425373583</v>
+        <v>0.0821194425373584</v>
       </c>
       <c r="C9" t="n">
         <v>0.069087010255869</v>
@@ -775,7 +775,7 @@
         <v>0.0669197721814988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0740101483681619</v>
+        <v>0.0740101483681618</v>
       </c>
       <c r="J9" t="n">
         <v>0.0658955151897949</v>
@@ -907,7 +907,7 @@
         <v>0.0706362559659104</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0746070116318085</v>
+        <v>0.0746070116318086</v>
       </c>
       <c r="M12" t="n">
         <v>0.0769985448093659</v>
@@ -930,7 +930,7 @@
         <v>0.0872667526523349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.098495182865804</v>
+        <v>0.0984951828658039</v>
       </c>
       <c r="G13" t="n">
         <v>0.0827865872047564</v>
@@ -977,7 +977,7 @@
         <v>0.0663133141155385</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0875229282815744</v>
+        <v>0.0875229282815745</v>
       </c>
       <c r="I14" t="n">
         <v>0.0781677674937424</v>

--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -467,13 +467,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0728783962719581</v>
+        <v>0.0728973791369304</v>
       </c>
       <c r="C2" t="n">
         <v>0.0847461462848402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0553464405882959</v>
+        <v>0.0553465882581216</v>
       </c>
       <c r="E2" t="n">
         <v>0.080465049365499</v>
@@ -482,7 +482,7 @@
         <v>0.0691564605995482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0910615313607999</v>
+        <v>0.0910615313607998</v>
       </c>
       <c r="H2" t="n">
         <v>0.0844286022016669</v>
@@ -500,7 +500,7 @@
         <v>0.0752039598138006</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0714857028953939</v>
+        <v>0.0714940612812501</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0685826637755239</v>
+        <v>0.0686073675300928</v>
       </c>
       <c r="C3" t="n">
         <v>0.0750504658851323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0692871937830102</v>
+        <v>0.0692880249872862</v>
       </c>
       <c r="E3" t="n">
         <v>0.0754842462519319</v>
@@ -538,10 +538,10 @@
         <v>0.0716451746497696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0718945015844923</v>
+        <v>0.0718945015844924</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0703142122360102</v>
+        <v>0.0703208890828799</v>
       </c>
     </row>
     <row r="4">
@@ -549,13 +549,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0651447169297712</v>
+        <v>0.0651264131883374</v>
       </c>
       <c r="C4" t="n">
         <v>0.0768924942186655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0626100546941549</v>
+        <v>0.0626135433637204</v>
       </c>
       <c r="E4" t="n">
         <v>0.0611014838387761</v>
@@ -582,7 +582,7 @@
         <v>0.063236092597108</v>
       </c>
       <c r="M4" t="n">
-        <v>0.064337106315902</v>
+        <v>0.0643318865990282</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0600053362529808</v>
+        <v>0.0600046320606869</v>
       </c>
       <c r="C5" t="n">
         <v>0.0739905640920407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.054677434527178</v>
+        <v>0.0546822213205414</v>
       </c>
       <c r="E5" t="n">
         <v>0.06746004668084</v>
@@ -617,13 +617,13 @@
         <v>0.0724675487828082</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0662698726321892</v>
+        <v>0.0662698726321891</v>
       </c>
       <c r="L5" t="n">
         <v>0.0662027613263969</v>
       </c>
       <c r="M5" t="n">
-        <v>0.062482265318723</v>
+        <v>0.0624786616417262</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0848042307086248</v>
+        <v>0.0848072027381298</v>
       </c>
       <c r="C6" t="n">
         <v>0.0818072953176544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0869768103506962</v>
+        <v>0.0869801577945025</v>
       </c>
       <c r="E6" t="n">
         <v>0.0954133206804431</v>
@@ -646,7 +646,7 @@
         <v>0.079866207852374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.095665580015614</v>
+        <v>0.0956655800156141</v>
       </c>
       <c r="H6" t="n">
         <v>0.0796607123184648</v>
@@ -664,7 +664,7 @@
         <v>0.0874729810221898</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0861333775283969</v>
+        <v>0.0861327134191937</v>
       </c>
     </row>
     <row r="7">
@@ -672,13 +672,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.10337923413957</v>
+        <v>0.103360689318636</v>
       </c>
       <c r="C7" t="n">
         <v>0.0916443271242249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0936954798268929</v>
+        <v>0.0936919622427512</v>
       </c>
       <c r="E7" t="n">
         <v>0.102197581876908</v>
@@ -705,7 +705,7 @@
         <v>0.111042775787661</v>
       </c>
       <c r="M7" t="n">
-        <v>0.104889011260406</v>
+        <v>0.104878529998176</v>
       </c>
     </row>
     <row r="8">
@@ -713,13 +713,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0757812549995481</v>
+        <v>0.0757276151254797</v>
       </c>
       <c r="C8" t="n">
         <v>0.0870809716630718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0644460396612164</v>
+        <v>0.0644564152894346</v>
       </c>
       <c r="E8" t="n">
         <v>0.0610806512299685</v>
@@ -737,7 +737,7 @@
         <v>0.0403023731537819</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0686917892600224</v>
+        <v>0.0686917892600225</v>
       </c>
       <c r="K8" t="n">
         <v>0.0774218472344093</v>
@@ -746,7 +746,7 @@
         <v>0.0659600488077322</v>
       </c>
       <c r="M8" t="n">
-        <v>0.070089817830802</v>
+        <v>0.0700807879213708</v>
       </c>
     </row>
     <row r="9">
@@ -754,28 +754,28 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0821194425373584</v>
+        <v>0.0821037720926078</v>
       </c>
       <c r="C9" t="n">
         <v>0.069087010255869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0788304007373763</v>
+        <v>0.0788325738769023</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0628958989764233</v>
+        <v>0.0628958989764234</v>
       </c>
       <c r="F9" t="n">
         <v>0.0652155333995673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0579637103820541</v>
+        <v>0.0579637103820542</v>
       </c>
       <c r="H9" t="n">
         <v>0.0669197721814988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0740101483681618</v>
+        <v>0.0740101483681619</v>
       </c>
       <c r="J9" t="n">
         <v>0.0658955151897949</v>
@@ -787,7 +787,7 @@
         <v>0.0689617996370833</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0754002069153849</v>
+        <v>0.075405397873331</v>
       </c>
     </row>
     <row r="10">
@@ -795,13 +795,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0717038366282586</v>
+        <v>0.071721437018465</v>
       </c>
       <c r="C10" t="n">
         <v>0.0677562723974547</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0485056382946508</v>
+        <v>0.0484972605562529</v>
       </c>
       <c r="E10" t="n">
         <v>0.05547657386271</v>
@@ -828,7 +828,7 @@
         <v>0.0726643404576136</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0684858742960098</v>
+        <v>0.0684960074064921</v>
       </c>
     </row>
     <row r="11">
@@ -836,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0750721412048194</v>
+        <v>0.0750406432670374</v>
       </c>
       <c r="C11" t="n">
         <v>0.0709816758329438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.103422629959697</v>
+        <v>0.103405376790026</v>
       </c>
       <c r="E11" t="n">
         <v>0.103229430303872</v>
@@ -869,7 +869,7 @@
         <v>0.0879644277973406</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0849924532955561</v>
+        <v>0.0849645082697972</v>
       </c>
     </row>
     <row r="12">
@@ -877,13 +877,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0766221860746766</v>
+        <v>0.076691054970012</v>
       </c>
       <c r="C12" t="n">
         <v>0.0731588452547005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0858512667802094</v>
+        <v>0.0858706702044078</v>
       </c>
       <c r="E12" t="n">
         <v>0.0664240215578783</v>
@@ -904,13 +904,13 @@
         <v>0.0662971122648246</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0706362559659104</v>
+        <v>0.0706362559659103</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0746070116318086</v>
+        <v>0.0746070116318085</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0769985448093659</v>
+        <v>0.0770259984247072</v>
       </c>
     </row>
     <row r="13">
@@ -918,19 +918,19 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0854150028779911</v>
+        <v>0.0853428169405928</v>
       </c>
       <c r="C13" t="n">
         <v>0.0815252971271281</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0882004044243773</v>
+        <v>0.0882105862755275</v>
       </c>
       <c r="E13" t="n">
         <v>0.0872667526523349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0984951828658039</v>
+        <v>0.098495182865804</v>
       </c>
       <c r="G13" t="n">
         <v>0.0827865872047564</v>
@@ -942,7 +942,7 @@
         <v>0.0784491245325484</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0912410141275855</v>
+        <v>0.0912410141275856</v>
       </c>
       <c r="K13" t="n">
         <v>0.0645442270797302</v>
@@ -951,7 +951,7 @@
         <v>0.0830438861838484</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0846768296972528</v>
+        <v>0.0846520802802198</v>
       </c>
     </row>
     <row r="14">
@@ -959,13 +959,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0784915575989195</v>
+        <v>0.0785689766129919</v>
       </c>
       <c r="C14" t="n">
         <v>0.0662786345462739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.108150206372245</v>
+        <v>0.108124619040526</v>
       </c>
       <c r="E14" t="n">
         <v>0.0815049427224148</v>
@@ -977,7 +977,7 @@
         <v>0.0663133141155385</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0875229282815745</v>
+        <v>0.0875229282815744</v>
       </c>
       <c r="I14" t="n">
         <v>0.0781677674937424</v>
@@ -992,7 +992,7 @@
         <v>0.0717454133529251</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0797145976007967</v>
+        <v>0.079738477801828</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -469,8 +469,8 @@
       <c r="B2" t="n">
         <v>0.0728973791369304</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0847461462848402</v>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D2" t="n">
         <v>0.0553465882581216</v>
@@ -488,7 +488,7 @@
         <v>0.0844286022016669</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0778600772704493</v>
+        <v>0.0778600772704492</v>
       </c>
       <c r="J2" t="n">
         <v>0.0703824579835724</v>
@@ -510,8 +510,8 @@
       <c r="B3" t="n">
         <v>0.0686073675300928</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0750504658851323</v>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
         <v>0.0692880249872862</v>
@@ -538,7 +538,7 @@
         <v>0.0716451746497696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0718945015844924</v>
+        <v>0.0718945015844923</v>
       </c>
       <c r="M3" t="n">
         <v>0.0703208890828799</v>
@@ -551,8 +551,8 @@
       <c r="B4" t="n">
         <v>0.0651264131883374</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0768924942186655</v>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D4" t="n">
         <v>0.0626135433637204</v>
@@ -579,7 +579,7 @@
         <v>0.0557914714305066</v>
       </c>
       <c r="L4" t="n">
-        <v>0.063236092597108</v>
+        <v>0.0632360925971079</v>
       </c>
       <c r="M4" t="n">
         <v>0.0643318865990282</v>
@@ -592,8 +592,8 @@
       <c r="B5" t="n">
         <v>0.0600046320606869</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0739905640920407</v>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D5" t="n">
         <v>0.0546822213205414</v>
@@ -633,8 +633,8 @@
       <c r="B6" t="n">
         <v>0.0848072027381298</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0818072953176544</v>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D6" t="n">
         <v>0.0869801577945025</v>
@@ -646,7 +646,7 @@
         <v>0.079866207852374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0956655800156141</v>
+        <v>0.095665580015614</v>
       </c>
       <c r="H6" t="n">
         <v>0.0796607123184648</v>
@@ -674,8 +674,8 @@
       <c r="B7" t="n">
         <v>0.103360689318636</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0916443271242249</v>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D7" t="n">
         <v>0.0936919622427512</v>
@@ -715,8 +715,8 @@
       <c r="B8" t="n">
         <v>0.0757276151254797</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0870809716630718</v>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D8" t="n">
         <v>0.0644564152894346</v>
@@ -756,14 +756,14 @@
       <c r="B9" t="n">
         <v>0.0821037720926078</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.069087010255869</v>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D9" t="n">
         <v>0.0788325738769023</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0628958989764234</v>
+        <v>0.0628958989764233</v>
       </c>
       <c r="F9" t="n">
         <v>0.0652155333995673</v>
@@ -797,8 +797,8 @@
       <c r="B10" t="n">
         <v>0.071721437018465</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0677562723974547</v>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D10" t="n">
         <v>0.0484972605562529</v>
@@ -838,8 +838,8 @@
       <c r="B11" t="n">
         <v>0.0750406432670374</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0709816758329438</v>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D11" t="n">
         <v>0.103405376790026</v>
@@ -857,7 +857,7 @@
         <v>0.0844838250554281</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0863194602307683</v>
+        <v>0.0863194602307682</v>
       </c>
       <c r="J11" t="n">
         <v>0.10079166274499</v>
@@ -879,8 +879,8 @@
       <c r="B12" t="n">
         <v>0.076691054970012</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0731588452547005</v>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D12" t="n">
         <v>0.0858706702044078</v>
@@ -904,7 +904,7 @@
         <v>0.0662971122648246</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0706362559659103</v>
+        <v>0.0706362559659104</v>
       </c>
       <c r="L12" t="n">
         <v>0.0746070116318085</v>
@@ -918,10 +918,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0853428169405928</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0815252971271281</v>
+        <v>0.0853428169405929</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D13" t="n">
         <v>0.0882105862755275</v>
@@ -930,7 +930,7 @@
         <v>0.0872667526523349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.098495182865804</v>
+        <v>0.0984951828658039</v>
       </c>
       <c r="G13" t="n">
         <v>0.0827865872047564</v>
@@ -942,7 +942,7 @@
         <v>0.0784491245325484</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0912410141275856</v>
+        <v>0.0912410141275855</v>
       </c>
       <c r="K13" t="n">
         <v>0.0645442270797302</v>
@@ -961,20 +961,20 @@
       <c r="B14" t="n">
         <v>0.0785689766129919</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0662786345462739</v>
+      <c r="C14" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D14" t="n">
         <v>0.108124619040526</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0815049427224148</v>
+        <v>0.0815049427224147</v>
       </c>
       <c r="F14" t="n">
         <v>0.065650759696436</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0663133141155385</v>
+        <v>0.0663133141155384</v>
       </c>
       <c r="H14" t="n">
         <v>0.0875229282815744</v>

--- a/xlsx/country_comparison/split_many_bars.xlsx
+++ b/xlsx/country_comparison/split_many_bars.xlsx
@@ -469,8 +469,8 @@
       <c r="B2" t="n">
         <v>0.0728973791369304</v>
       </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
+      <c r="C2" t="n">
+        <v>0.0847461462848402</v>
       </c>
       <c r="D2" t="n">
         <v>0.0553465882581216</v>
@@ -510,8 +510,8 @@
       <c r="B3" t="n">
         <v>0.0686073675300928</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
+      <c r="C3" t="n">
+        <v>0.0750504658851323</v>
       </c>
       <c r="D3" t="n">
         <v>0.0692880249872862</v>
@@ -551,8 +551,8 @@
       <c r="B4" t="n">
         <v>0.0651264131883374</v>
       </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
+      <c r="C4" t="n">
+        <v>0.0768924942186655</v>
       </c>
       <c r="D4" t="n">
         <v>0.0626135433637204</v>
@@ -592,8 +592,8 @@
       <c r="B5" t="n">
         <v>0.0600046320606869</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
+      <c r="C5" t="n">
+        <v>0.0739905640920407</v>
       </c>
       <c r="D5" t="n">
         <v>0.0546822213205414</v>
@@ -633,8 +633,8 @@
       <c r="B6" t="n">
         <v>0.0848072027381298</v>
       </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
+      <c r="C6" t="n">
+        <v>0.0818072953176544</v>
       </c>
       <c r="D6" t="n">
         <v>0.0869801577945025</v>
@@ -674,8 +674,8 @@
       <c r="B7" t="n">
         <v>0.103360689318636</v>
       </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
+      <c r="C7" t="n">
+        <v>0.0916443271242249</v>
       </c>
       <c r="D7" t="n">
         <v>0.0936919622427512</v>
@@ -715,8 +715,8 @@
       <c r="B8" t="n">
         <v>0.0757276151254797</v>
       </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
+      <c r="C8" t="n">
+        <v>0.0870809716630718</v>
       </c>
       <c r="D8" t="n">
         <v>0.0644564152894346</v>
@@ -756,8 +756,8 @@
       <c r="B9" t="n">
         <v>0.0821037720926078</v>
       </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
+      <c r="C9" t="n">
+        <v>0.069087010255869</v>
       </c>
       <c r="D9" t="n">
         <v>0.0788325738769023</v>
@@ -797,8 +797,8 @@
       <c r="B10" t="n">
         <v>0.071721437018465</v>
       </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
+      <c r="C10" t="n">
+        <v>0.0677562723974547</v>
       </c>
       <c r="D10" t="n">
         <v>0.0484972605562529</v>
@@ -838,8 +838,8 @@
       <c r="B11" t="n">
         <v>0.0750406432670374</v>
       </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
+      <c r="C11" t="n">
+        <v>0.0709816758329438</v>
       </c>
       <c r="D11" t="n">
         <v>0.103405376790026</v>
@@ -879,8 +879,8 @@
       <c r="B12" t="n">
         <v>0.076691054970012</v>
       </c>
-      <c r="C12" t="e">
-        <v>#NUM!</v>
+      <c r="C12" t="n">
+        <v>0.0731588452547005</v>
       </c>
       <c r="D12" t="n">
         <v>0.0858706702044078</v>
@@ -920,8 +920,8 @@
       <c r="B13" t="n">
         <v>0.0853428169405929</v>
       </c>
-      <c r="C13" t="e">
-        <v>#NUM!</v>
+      <c r="C13" t="n">
+        <v>0.0815252971271281</v>
       </c>
       <c r="D13" t="n">
         <v>0.0882105862755275</v>
@@ -961,8 +961,8 @@
       <c r="B14" t="n">
         <v>0.0785689766129919</v>
       </c>
-      <c r="C14" t="e">
-        <v>#NUM!</v>
+      <c r="C14" t="n">
+        <v>0.0662786345462739</v>
       </c>
       <c r="D14" t="n">
         <v>0.108124619040526</v>
